--- a/dengue data converted /2016_dengue_extracted.xlsx
+++ b/dengue data converted /2016_dengue_extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/Bioinfo/Klimaprojekt/Daten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemitigrato/Desktop/topic04_team01/dengue data converted /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{61C1CF24-1349-4A4E-89F6-C47501898F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B7AD0A1-7ECF-4239-9D90-AE82B080040E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFCBA78-7156-A641-9FEB-F8A7BFCAE7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27320" yWindow="-2080" windowWidth="27320" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -376,7 +376,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -391,14 +391,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -436,9 +432,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,26 +467,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,26 +502,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -718,28 +680,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q81" sqref="Q14:Q81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1"/>
+    <col min="1" max="1" width="37.59765625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="4" max="4" width="9.796875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.796875" customWidth="1"/>
+    <col min="10" max="10" width="9.796875" customWidth="1"/>
+    <col min="11" max="11" width="7.59765625" customWidth="1"/>
+    <col min="12" max="12" width="8.3984375" customWidth="1"/>
+    <col min="13" max="13" width="7.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -780,7 +742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>89</v>
       </c>
@@ -821,7 +783,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
@@ -862,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -903,7 +865,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>61</v>
       </c>
@@ -944,7 +906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -985,7 +947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -1026,7 +988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1067,7 +1029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
@@ -1108,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
@@ -1149,7 +1111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1190,7 +1152,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1231,7 +1193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
@@ -1272,7 +1234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>75</v>
       </c>
@@ -1313,7 +1275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
@@ -1354,7 +1316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
@@ -1395,7 +1357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
@@ -1436,7 +1398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>58</v>
       </c>
@@ -1477,7 +1439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>76</v>
       </c>
@@ -1518,7 +1480,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
@@ -1559,7 +1521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
@@ -1600,7 +1562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>62</v>
       </c>
@@ -1641,7 +1603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1682,7 +1644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -1723,7 +1685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>59</v>
       </c>
@@ -1764,7 +1726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>71</v>
       </c>
@@ -1805,7 +1767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
@@ -1846,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
@@ -1887,7 +1849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>63</v>
       </c>
@@ -1928,7 +1890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>70</v>
       </c>
@@ -1969,7 +1931,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -2010,7 +1972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
@@ -2051,7 +2013,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
@@ -2092,7 +2054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>82</v>
       </c>
@@ -2133,7 +2095,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>64</v>
       </c>
@@ -2174,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>65</v>
       </c>
@@ -2215,7 +2177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
@@ -2256,7 +2218,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
@@ -2297,7 +2259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
@@ -2338,7 +2300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>83</v>
       </c>
@@ -2379,7 +2341,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>78</v>
       </c>
@@ -2420,7 +2382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>84</v>
       </c>
@@ -2461,7 +2423,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>20</v>
       </c>
@@ -2502,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>22</v>
       </c>
@@ -2543,7 +2505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
@@ -2584,7 +2546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>30</v>
       </c>
@@ -2625,7 +2587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>23</v>
       </c>
@@ -2666,7 +2628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>21</v>
       </c>
@@ -2707,7 +2669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>79</v>
       </c>
@@ -2748,7 +2710,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>52</v>
       </c>
@@ -2789,7 +2751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>44</v>
       </c>
@@ -2830,7 +2792,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>80</v>
       </c>
@@ -2871,7 +2833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>45</v>
       </c>
@@ -2912,7 +2874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>53</v>
       </c>
@@ -2953,7 +2915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>60</v>
       </c>
@@ -2994,7 +2956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>54</v>
       </c>
@@ -3035,7 +2997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>66</v>
       </c>
@@ -3076,7 +3038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>55</v>
       </c>
@@ -3117,7 +3079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>46</v>
       </c>
@@ -3158,7 +3120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>47</v>
       </c>
@@ -3199,7 +3161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>39</v>
       </c>
@@ -3240,7 +3202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>85</v>
       </c>
@@ -3281,7 +3243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>72</v>
       </c>
@@ -3322,7 +3284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>40</v>
       </c>
@@ -3363,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>86</v>
       </c>
@@ -3404,7 +3366,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
         <v>24</v>
       </c>
@@ -3445,7 +3407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
         <v>48</v>
       </c>
@@ -3486,7 +3448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
         <v>81</v>
       </c>
@@ -3527,7 +3489,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
         <v>0</v>
       </c>
@@ -3568,7 +3530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
         <v>25</v>
       </c>
@@ -3609,7 +3571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
         <v>87</v>
       </c>
@@ -3650,7 +3612,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
         <v>56</v>
       </c>
@@ -3691,7 +3653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
         <v>73</v>
       </c>
@@ -3732,7 +3694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
         <v>67</v>
       </c>
@@ -3773,7 +3735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
         <v>31</v>
       </c>
@@ -3814,7 +3776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
         <v>26</v>
       </c>
@@ -3855,7 +3817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
         <v>88</v>
       </c>
@@ -3896,7 +3858,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
         <v>74</v>
       </c>
